--- a/datadiabetes.xlsx
+++ b/datadiabetes.xlsx
@@ -1,31 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Ageng\Kuliah\Sem 4\Proyek Akhir SCPK Prak\10 - Project Akhir\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Polyspace\R2019a\bin\123210103_Fuzzy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{64FE7104-F8E4-4E40-A2F1-F840574B6692}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DE42C4F-1988-4DBD-B862-997F9F85020A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{801C8620-D98E-4F7D-AE5B-3E8A840DE3DB}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{801C8620-D98E-4F7D-AE5B-3E8A840DE3DB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="33">
   <si>
     <t>Aturan</t>
   </si>
@@ -100,6 +109,30 @@
   </si>
   <si>
     <t>tua</t>
+  </si>
+  <si>
+    <t>Middle-aged</t>
+  </si>
+  <si>
+    <t>Elderly</t>
+  </si>
+  <si>
+    <t>Very High</t>
+  </si>
+  <si>
+    <t>Very low</t>
+  </si>
+  <si>
+    <t>Age</t>
+  </si>
+  <si>
+    <t>Weight</t>
+  </si>
+  <si>
+    <t>Blood Pressure</t>
+  </si>
+  <si>
+    <t>Risk</t>
   </si>
 </sst>
 </file>
@@ -287,18 +320,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -309,6 +330,18 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -624,15 +657,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0FE64F5-32D8-47F4-B0DF-539B0731D05D}">
-  <dimension ref="A1:K58"/>
+  <dimension ref="A1:K102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="J50" sqref="J50"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P5" sqref="P5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="7" max="7" width="11.26953125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.81640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="24.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" ht="23.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -649,126 +686,126 @@
         <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="H1" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K1" s="12"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A2" s="18">
         <v>1</v>
       </c>
-      <c r="I1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="K1" s="12" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" s="22">
-        <v>1</v>
-      </c>
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="22" t="s">
+      <c r="C2" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="24" t="s">
+      <c r="D2" s="20" t="s">
         <v>7</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="22">
-        <v>41</v>
-      </c>
-      <c r="H2" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="I2" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="J2" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="23"/>
-      <c r="B3" s="25"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="25"/>
+      <c r="G2" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B2,"Muda","Young"),"Paroh baya","Middle-aged"),"Tua","Old"),"Sangat tua","Elderly")</f>
+        <v>Young</v>
+      </c>
+      <c r="H2" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(C2,"Kurus berat","Slim"),"Kurus ringan","Thin"),"Gemuk ringan","Light-fat"),"Gemuk berat","Fat")</f>
+        <v>Slim</v>
+      </c>
+      <c r="I2" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D2,"Rendah","Low"),"Tinggi","High"),"Sangat tinggi","Very High"),"Gemuk berat","Fat")</f>
+        <v>Low</v>
+      </c>
+      <c r="J2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="19"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="21"/>
       <c r="E3" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="23"/>
-      <c r="H3" s="23"/>
-      <c r="I3" s="21"/>
-      <c r="J3" s="23"/>
-      <c r="K3" s="7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="22">
+      <c r="G3" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B3,"Muda","Young"),"Paroh baya","Middle-aged"),"Tua","Old"),"Sangat tua","Elderly")</f>
+        <v/>
+      </c>
+      <c r="H3" t="str">
+        <f t="shared" ref="H3:H66" si="0">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(C3,"Kurus berat","Slim"),"Kurus ringan","Thin"),"Gemuk ringan","Light-fat"),"Gemuk berat","Fat")</f>
+        <v/>
+      </c>
+      <c r="I3" t="str">
+        <f t="shared" ref="I3:I66" si="1">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D3,"Rendah","Low"),"Tinggi","High"),"Sangat tinggi","Very High"),"Gemuk berat","Fat")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A4" s="18">
         <v>2</v>
       </c>
-      <c r="B4" s="24" t="s">
+      <c r="B4" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="22" t="s">
+      <c r="C4" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="24" t="s">
+      <c r="D4" s="20" t="s">
         <v>10</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="8">
-        <v>42</v>
-      </c>
-      <c r="H4" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="I4" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="J4" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="23"/>
-      <c r="B5" s="25"/>
-      <c r="C5" s="23"/>
-      <c r="D5" s="25"/>
+      <c r="G4" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B4,"Muda","Young"),"Paroh baya","Middle-aged"),"Tua","Old"),"Sangat tua","Elderly")</f>
+        <v>Young</v>
+      </c>
+      <c r="H4" t="str">
+        <f t="shared" si="0"/>
+        <v>Slim</v>
+      </c>
+      <c r="I4" t="str">
+        <f t="shared" si="1"/>
+        <v>Normal</v>
+      </c>
+      <c r="J4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="19"/>
+      <c r="B5" s="21"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="21"/>
       <c r="E5" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="G5" s="8">
-        <v>43</v>
-      </c>
-      <c r="H5" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="I5" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="J5" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G5" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B5,"Muda","Young"),"Paroh baya","Middle-aged"),"Tua","Old"),"Sangat tua","Elderly")</f>
+        <v/>
+      </c>
+      <c r="H5" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I5" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="8">
         <v>3</v>
       </c>
@@ -784,135 +821,130 @@
       <c r="E6" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="G6" s="8">
-        <v>44</v>
-      </c>
-      <c r="H6" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="I6" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="J6" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="K6" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="22">
+      <c r="G6" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B6,"Muda","Young"),"Paroh baya","Middle-aged"),"Tua","Old"),"Sangat tua","Elderly")</f>
+        <v>Young</v>
+      </c>
+      <c r="H6" t="str">
+        <f t="shared" si="0"/>
+        <v>Slim</v>
+      </c>
+      <c r="I6" t="str">
+        <f t="shared" si="1"/>
+        <v>High</v>
+      </c>
+      <c r="J6" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(E6,"Sangat rendah","Very low"),"Tinggi","High"),"Rendah","Low"),"Menengah","Medium")</f>
+        <v>Low</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A7" s="18">
         <v>4</v>
       </c>
-      <c r="B7" s="24" t="s">
+      <c r="B7" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="22" t="s">
+      <c r="C7" s="18" t="s">
         <v>6</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="22" t="s">
+      <c r="E7" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="G7" s="8">
-        <v>45</v>
-      </c>
-      <c r="H7" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="I7" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="J7" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="23"/>
-      <c r="B8" s="25"/>
-      <c r="C8" s="23"/>
+      <c r="G7" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B7,"Muda","Young"),"Paroh baya","Middle-aged"),"Tua","Old"),"Sangat tua","Elderly")</f>
+        <v>Young</v>
+      </c>
+      <c r="H7" t="str">
+        <f t="shared" si="0"/>
+        <v>Slim</v>
+      </c>
+      <c r="I7" t="s">
+        <v>27</v>
+      </c>
+      <c r="J7" t="str">
+        <f t="shared" ref="J7:J70" si="2">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(E7,"Sangat rendah","Very low"),"Tinggi","High"),"Rendah","Low"),"Menengah","Medium")</f>
+        <v>Medium</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="19"/>
+      <c r="B8" s="21"/>
+      <c r="C8" s="19"/>
       <c r="D8" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="23"/>
-      <c r="G8" s="8">
-        <v>46</v>
-      </c>
-      <c r="H8" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="I8" s="13" t="s">
+      <c r="E8" s="19"/>
+      <c r="G8" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B8,"Muda","Young"),"Paroh baya","Middle-aged"),"Tua","Old"),"Sangat tua","Elderly")</f>
+        <v/>
+      </c>
+      <c r="H8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J8" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A9" s="18">
+        <v>5</v>
+      </c>
+      <c r="B9" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="J8" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="22">
-        <v>5</v>
-      </c>
-      <c r="B9" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" s="24" t="s">
+      <c r="D9" s="20" t="s">
         <v>7</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G9" s="8">
-        <v>47</v>
-      </c>
-      <c r="H9" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="I9" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="J9" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="K9" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="23"/>
-      <c r="B10" s="25"/>
-      <c r="C10" s="23"/>
-      <c r="D10" s="25"/>
+      <c r="G9" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B9,"Muda","Young"),"Paroh baya","Middle-aged"),"Tua","Old"),"Sangat tua","Elderly")</f>
+        <v>Young</v>
+      </c>
+      <c r="H9" t="str">
+        <f t="shared" si="0"/>
+        <v>Thin</v>
+      </c>
+      <c r="I9" t="str">
+        <f t="shared" si="1"/>
+        <v>Low</v>
+      </c>
+      <c r="J9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="19"/>
+      <c r="B10" s="21"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="21"/>
       <c r="E10" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="G10" s="8">
-        <v>48</v>
-      </c>
-      <c r="H10" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="I10" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="J10" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="K10" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G10" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B10,"Muda","Young"),"Paroh baya","Middle-aged"),"Tua","Old"),"Sangat tua","Elderly")</f>
+        <v/>
+      </c>
+      <c r="H10" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A11" s="8">
         <v>6</v>
       </c>
@@ -928,23 +960,24 @@
       <c r="E11" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="G11" s="8">
-        <v>49</v>
-      </c>
-      <c r="H11" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="I11" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="J11" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G11" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B11,"Muda","Young"),"Paroh baya","Middle-aged"),"Tua","Old"),"Sangat tua","Elderly")</f>
+        <v>Young</v>
+      </c>
+      <c r="H11" t="str">
+        <f t="shared" si="0"/>
+        <v>Thin</v>
+      </c>
+      <c r="I11" t="str">
+        <f t="shared" si="1"/>
+        <v>Normal</v>
+      </c>
+      <c r="J11" t="str">
+        <f t="shared" si="2"/>
+        <v>Low</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="8">
         <v>7</v>
       </c>
@@ -960,23 +993,24 @@
       <c r="E12" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G12" s="8">
-        <v>50</v>
-      </c>
-      <c r="H12" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="I12" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="J12" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="K12" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G12" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B12,"Muda","Young"),"Paroh baya","Middle-aged"),"Tua","Old"),"Sangat tua","Elderly")</f>
+        <v>Young</v>
+      </c>
+      <c r="H12" t="str">
+        <f t="shared" si="0"/>
+        <v>Thin</v>
+      </c>
+      <c r="I12" t="str">
+        <f t="shared" si="1"/>
+        <v>High</v>
+      </c>
+      <c r="J12" t="str">
+        <f t="shared" si="2"/>
+        <v>Medium</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="20.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="8">
         <v>8</v>
       </c>
@@ -992,23 +1026,24 @@
       <c r="E13" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G13" s="8">
-        <v>51</v>
-      </c>
-      <c r="H13" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="I13" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="J13" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="K13" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G13" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B13,"Muda","Young"),"Paroh baya","Middle-aged"),"Tua","Old"),"Sangat tua","Elderly")</f>
+        <v>Young</v>
+      </c>
+      <c r="H13" t="str">
+        <f t="shared" si="0"/>
+        <v>Thin</v>
+      </c>
+      <c r="I13" t="str">
+        <f t="shared" si="1"/>
+        <v>Very High</v>
+      </c>
+      <c r="J13" t="str">
+        <f t="shared" si="2"/>
+        <v>Medium</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14" s="8">
         <v>9</v>
       </c>
@@ -1024,23 +1059,24 @@
       <c r="E14" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="G14" s="8">
-        <v>52</v>
-      </c>
-      <c r="H14" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="I14" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="J14" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="K14" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G14" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B14,"Muda","Young"),"Paroh baya","Middle-aged"),"Tua","Old"),"Sangat tua","Elderly")</f>
+        <v>Young</v>
+      </c>
+      <c r="H14" t="str">
+        <f t="shared" si="0"/>
+        <v>Normal</v>
+      </c>
+      <c r="I14" t="str">
+        <f t="shared" si="1"/>
+        <v>Low</v>
+      </c>
+      <c r="J14" t="str">
+        <f t="shared" si="2"/>
+        <v>Low</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A15" s="8">
         <v>10</v>
       </c>
@@ -1056,23 +1092,24 @@
       <c r="E15" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G15" s="8">
-        <v>53</v>
-      </c>
-      <c r="H15" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="I15" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="J15" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="K15" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G15" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B15,"Muda","Young"),"Paroh baya","Middle-aged"),"Tua","Old"),"Sangat tua","Elderly")</f>
+        <v>Young</v>
+      </c>
+      <c r="H15" t="str">
+        <f t="shared" si="0"/>
+        <v>Normal</v>
+      </c>
+      <c r="I15" t="str">
+        <f t="shared" si="1"/>
+        <v>Normal</v>
+      </c>
+      <c r="J15" t="str">
+        <f t="shared" si="2"/>
+        <v>Medium</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A16" s="8">
         <v>11</v>
       </c>
@@ -1088,79 +1125,77 @@
       <c r="E16" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G16" s="8">
-        <v>54</v>
-      </c>
-      <c r="H16" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="I16" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="J16" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="K16" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="22">
+      <c r="G16" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B16,"Muda","Young"),"Paroh baya","Middle-aged"),"Tua","Old"),"Sangat tua","Elderly")</f>
+        <v>Young</v>
+      </c>
+      <c r="H16" t="str">
+        <f t="shared" si="0"/>
+        <v>Normal</v>
+      </c>
+      <c r="I16" t="str">
+        <f t="shared" si="1"/>
+        <v>High</v>
+      </c>
+      <c r="J16" t="str">
+        <f t="shared" si="2"/>
+        <v>Medium</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A17" s="18">
         <v>12</v>
       </c>
-      <c r="B17" s="24" t="s">
+      <c r="B17" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="C17" s="22" t="s">
+      <c r="C17" s="18" t="s">
         <v>10</v>
       </c>
       <c r="D17" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E17" s="22" t="s">
+      <c r="E17" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="G17" s="8">
-        <v>55</v>
-      </c>
-      <c r="H17" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="I17" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="J17" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="23"/>
-      <c r="B18" s="25"/>
-      <c r="C18" s="23"/>
+      <c r="G17" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B17,"Muda","Young"),"Paroh baya","Middle-aged"),"Tua","Old"),"Sangat tua","Elderly")</f>
+        <v>Young</v>
+      </c>
+      <c r="H17" t="str">
+        <f t="shared" si="0"/>
+        <v>Normal</v>
+      </c>
+      <c r="I17" t="s">
+        <v>27</v>
+      </c>
+      <c r="J17" t="str">
+        <f t="shared" si="2"/>
+        <v>Medium</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="19"/>
+      <c r="B18" s="21"/>
+      <c r="C18" s="19"/>
       <c r="D18" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="E18" s="23"/>
-      <c r="G18" s="8">
-        <v>56</v>
-      </c>
-      <c r="H18" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="I18" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="J18" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E18" s="19"/>
+      <c r="G18" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B18,"Muda","Young"),"Paroh baya","Middle-aged"),"Tua","Old"),"Sangat tua","Elderly")</f>
+        <v/>
+      </c>
+      <c r="H18" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J18" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="20.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A19" s="8">
         <v>13</v>
       </c>
@@ -1176,23 +1211,24 @@
       <c r="E19" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G19" s="8">
-        <v>57</v>
-      </c>
-      <c r="H19" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="I19" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="J19" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G19" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B19,"Muda","Young"),"Paroh baya","Middle-aged"),"Tua","Old"),"Sangat tua","Elderly")</f>
+        <v>Young</v>
+      </c>
+      <c r="H19" t="str">
+        <f t="shared" si="0"/>
+        <v>Light-fat</v>
+      </c>
+      <c r="I19" t="str">
+        <f t="shared" si="1"/>
+        <v>Low</v>
+      </c>
+      <c r="J19" t="str">
+        <f t="shared" si="2"/>
+        <v>Medium</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="20.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A20" s="8">
         <v>14</v>
       </c>
@@ -1208,23 +1244,24 @@
       <c r="E20" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G20" s="8">
-        <v>58</v>
-      </c>
-      <c r="H20" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="I20" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="J20" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G20" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B20,"Muda","Young"),"Paroh baya","Middle-aged"),"Tua","Old"),"Sangat tua","Elderly")</f>
+        <v>Young</v>
+      </c>
+      <c r="H20" t="str">
+        <f t="shared" si="0"/>
+        <v>Light-fat</v>
+      </c>
+      <c r="I20" t="str">
+        <f t="shared" si="1"/>
+        <v>Normal</v>
+      </c>
+      <c r="J20" t="str">
+        <f t="shared" si="2"/>
+        <v>Medium</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="20.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A21" s="8">
         <v>15</v>
       </c>
@@ -1240,79 +1277,77 @@
       <c r="E21" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G21" s="8">
-        <v>59</v>
-      </c>
-      <c r="H21" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="I21" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="J21" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="22">
+      <c r="G21" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B21,"Muda","Young"),"Paroh baya","Middle-aged"),"Tua","Old"),"Sangat tua","Elderly")</f>
+        <v>Young</v>
+      </c>
+      <c r="H21" t="str">
+        <f t="shared" si="0"/>
+        <v>Light-fat</v>
+      </c>
+      <c r="I21" t="str">
+        <f t="shared" si="1"/>
+        <v>High</v>
+      </c>
+      <c r="J21" t="str">
+        <f t="shared" si="2"/>
+        <v>High</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A22" s="18">
         <v>16</v>
       </c>
-      <c r="B22" s="24" t="s">
+      <c r="B22" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="C22" s="22" t="s">
+      <c r="C22" s="18" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E22" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="G22" s="8">
-        <v>60</v>
-      </c>
-      <c r="H22" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="I22" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="J22" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="23"/>
-      <c r="B23" s="25"/>
-      <c r="C23" s="23"/>
+      <c r="E22" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="G22" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B22,"Muda","Young"),"Paroh baya","Middle-aged"),"Tua","Old"),"Sangat tua","Elderly")</f>
+        <v>Young</v>
+      </c>
+      <c r="H22" t="str">
+        <f t="shared" si="0"/>
+        <v>Light-fat</v>
+      </c>
+      <c r="I22" t="s">
+        <v>27</v>
+      </c>
+      <c r="J22" t="str">
+        <f t="shared" si="2"/>
+        <v>High</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A23" s="19"/>
+      <c r="B23" s="21"/>
+      <c r="C23" s="19"/>
       <c r="D23" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="E23" s="23"/>
-      <c r="G23" s="8">
-        <v>61</v>
-      </c>
-      <c r="H23" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="I23" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="J23" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E23" s="19"/>
+      <c r="G23" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B23,"Muda","Young"),"Paroh baya","Middle-aged"),"Tua","Old"),"Sangat tua","Elderly")</f>
+        <v/>
+      </c>
+      <c r="H23" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J23" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="20.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A24" s="8">
         <v>17</v>
       </c>
@@ -1328,23 +1363,24 @@
       <c r="E24" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G24" s="8">
-        <v>62</v>
-      </c>
-      <c r="H24" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="I24" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="J24" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G24" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B24,"Muda","Young"),"Paroh baya","Middle-aged"),"Tua","Old"),"Sangat tua","Elderly")</f>
+        <v>Young</v>
+      </c>
+      <c r="H24" t="str">
+        <f t="shared" si="0"/>
+        <v>Fat</v>
+      </c>
+      <c r="I24" t="str">
+        <f t="shared" si="1"/>
+        <v>Low</v>
+      </c>
+      <c r="J24" t="str">
+        <f t="shared" si="2"/>
+        <v>High</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="20.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A25" s="8">
         <v>18</v>
       </c>
@@ -1360,23 +1396,24 @@
       <c r="E25" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G25" s="8">
-        <v>63</v>
-      </c>
-      <c r="H25" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="I25" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="J25" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G25" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B25,"Muda","Young"),"Paroh baya","Middle-aged"),"Tua","Old"),"Sangat tua","Elderly")</f>
+        <v>Young</v>
+      </c>
+      <c r="H25" t="str">
+        <f t="shared" si="0"/>
+        <v>Fat</v>
+      </c>
+      <c r="I25" t="str">
+        <f t="shared" si="1"/>
+        <v>Normal</v>
+      </c>
+      <c r="J25" t="str">
+        <f t="shared" si="2"/>
+        <v>High</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="20.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A26" s="8">
         <v>19</v>
       </c>
@@ -1392,73 +1429,77 @@
       <c r="E26" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G26" s="8">
-        <v>64</v>
-      </c>
-      <c r="H26" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="I26" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="J26" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="K26" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A27" s="22">
+      <c r="G26" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B26,"Muda","Young"),"Paroh baya","Middle-aged"),"Tua","Old"),"Sangat tua","Elderly")</f>
+        <v>Young</v>
+      </c>
+      <c r="H26" t="str">
+        <f t="shared" si="0"/>
+        <v>Fat</v>
+      </c>
+      <c r="I26" t="str">
+        <f t="shared" si="1"/>
+        <v>High</v>
+      </c>
+      <c r="J26" t="str">
+        <f t="shared" si="2"/>
+        <v>High</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A27" s="18">
         <v>20</v>
       </c>
-      <c r="B27" s="24" t="s">
+      <c r="B27" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="C27" s="22" t="s">
+      <c r="C27" s="18" t="s">
         <v>17</v>
       </c>
       <c r="D27" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E27" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="G27" s="22">
-        <v>65</v>
-      </c>
-      <c r="H27" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="I27" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="J27" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="K27" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="23"/>
-      <c r="B28" s="25"/>
-      <c r="C28" s="23"/>
+      <c r="E27" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="G27" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B27,"Muda","Young"),"Paroh baya","Middle-aged"),"Tua","Old"),"Sangat tua","Elderly")</f>
+        <v>Young</v>
+      </c>
+      <c r="H27" t="str">
+        <f t="shared" si="0"/>
+        <v>Fat</v>
+      </c>
+      <c r="I27" t="s">
+        <v>27</v>
+      </c>
+      <c r="J27" t="str">
+        <f t="shared" si="2"/>
+        <v>High</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A28" s="19"/>
+      <c r="B28" s="21"/>
+      <c r="C28" s="19"/>
       <c r="D28" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="E28" s="23"/>
-      <c r="G28" s="23"/>
-      <c r="H28" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="I28" s="21"/>
-      <c r="J28" s="23"/>
-      <c r="K28" s="7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E28" s="19"/>
+      <c r="G28" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B28,"Muda","Young"),"Paroh baya","Middle-aged"),"Tua","Old"),"Sangat tua","Elderly")</f>
+        <v/>
+      </c>
+      <c r="H28" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J28" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="20.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A29" s="8">
         <v>21</v>
       </c>
@@ -1474,23 +1515,24 @@
       <c r="E29" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="G29" s="8">
-        <v>66</v>
-      </c>
-      <c r="H29" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="I29" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="J29" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G29" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B29,"Muda","Young"),"Paroh baya","Middle-aged"),"Tua","Old"),"Sangat tua","Elderly")</f>
+        <v>Middle-aged</v>
+      </c>
+      <c r="H29" t="str">
+        <f t="shared" si="0"/>
+        <v>Slim</v>
+      </c>
+      <c r="I29" t="str">
+        <f t="shared" si="1"/>
+        <v>Low</v>
+      </c>
+      <c r="J29" t="str">
+        <f t="shared" si="2"/>
+        <v>Very low</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="20.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A30" s="8">
         <v>22</v>
       </c>
@@ -1506,23 +1548,24 @@
       <c r="E30" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="G30" s="8">
-        <v>67</v>
-      </c>
-      <c r="H30" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="I30" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="J30" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="K30" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G30" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B30,"Muda","Young"),"Paroh baya","Middle-aged"),"Tua","Old"),"Sangat tua","Elderly")</f>
+        <v>Middle-aged</v>
+      </c>
+      <c r="H30" t="str">
+        <f t="shared" si="0"/>
+        <v>Slim</v>
+      </c>
+      <c r="I30" t="str">
+        <f t="shared" si="1"/>
+        <v>Normal</v>
+      </c>
+      <c r="J30" t="str">
+        <f t="shared" si="2"/>
+        <v>Very low</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="20.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A31" s="8">
         <v>23</v>
       </c>
@@ -1538,245 +1581,230 @@
       <c r="E31" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="G31" s="8">
-        <v>68</v>
-      </c>
-      <c r="H31" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="I31" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="J31" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="K31" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="22">
+      <c r="G31" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B31,"Muda","Young"),"Paroh baya","Middle-aged"),"Tua","Old"),"Sangat tua","Elderly")</f>
+        <v>Middle-aged</v>
+      </c>
+      <c r="H31" t="str">
+        <f t="shared" si="0"/>
+        <v>Slim</v>
+      </c>
+      <c r="I31" t="str">
+        <f t="shared" si="1"/>
+        <v>High</v>
+      </c>
+      <c r="J31" t="str">
+        <f t="shared" si="2"/>
+        <v>Low</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A32" s="18">
         <v>24</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C32" s="22" t="s">
+      <c r="C32" s="18" t="s">
         <v>6</v>
       </c>
       <c r="D32" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E32" s="22" t="s">
+      <c r="E32" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="G32" s="14">
-        <v>69</v>
-      </c>
-      <c r="H32" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="I32" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="J32" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="K32" s="15" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="23"/>
+      <c r="G32" t="s">
+        <v>25</v>
+      </c>
+      <c r="H32" t="str">
+        <f t="shared" si="0"/>
+        <v>Slim</v>
+      </c>
+      <c r="I32" t="s">
+        <v>27</v>
+      </c>
+      <c r="J32" t="str">
+        <f t="shared" si="2"/>
+        <v>Medium</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A33" s="19"/>
       <c r="B33" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C33" s="23"/>
+      <c r="C33" s="19"/>
       <c r="D33" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="E33" s="23"/>
-      <c r="G33" s="8">
-        <v>70</v>
-      </c>
-      <c r="H33" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="I33" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="J33" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="K33" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="22">
+      <c r="E33" s="19"/>
+      <c r="H33" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J33" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A34" s="18">
         <v>25</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C34" s="22" t="s">
+      <c r="C34" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="D34" s="24" t="s">
+      <c r="D34" s="20" t="s">
         <v>7</v>
       </c>
       <c r="E34" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G34" s="8">
-        <v>71</v>
-      </c>
-      <c r="H34" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="I34" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="J34" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="K34" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="23"/>
+      <c r="G34" t="s">
+        <v>25</v>
+      </c>
+      <c r="H34" t="str">
+        <f t="shared" si="0"/>
+        <v>Thin</v>
+      </c>
+      <c r="I34" t="str">
+        <f t="shared" si="1"/>
+        <v>Low</v>
+      </c>
+      <c r="J34" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A35" s="19"/>
       <c r="B35" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C35" s="23"/>
-      <c r="D35" s="25"/>
+      <c r="C35" s="19"/>
+      <c r="D35" s="21"/>
       <c r="E35" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="G35" s="22">
-        <v>72</v>
-      </c>
-      <c r="H35" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="I35" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="J35" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="K35" s="20" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="22">
+      <c r="H35" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I35" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A36" s="18">
         <v>26</v>
       </c>
       <c r="B36" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C36" s="22" t="s">
+      <c r="C36" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="D36" s="24" t="s">
+      <c r="D36" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="E36" s="22" t="s">
+      <c r="E36" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="G36" s="23"/>
-      <c r="H36" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="I36" s="19"/>
-      <c r="J36" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="K36" s="21"/>
-    </row>
-    <row r="37" spans="1:11" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="23"/>
+      <c r="G36" t="s">
+        <v>25</v>
+      </c>
+      <c r="H36" t="str">
+        <f t="shared" si="0"/>
+        <v>Thin</v>
+      </c>
+      <c r="I36" t="str">
+        <f t="shared" si="1"/>
+        <v>Normal</v>
+      </c>
+      <c r="J36" t="str">
+        <f t="shared" si="2"/>
+        <v>Low</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A37" s="19"/>
       <c r="B37" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C37" s="23"/>
-      <c r="D37" s="25"/>
-      <c r="E37" s="23"/>
-      <c r="G37" s="8">
-        <v>73</v>
-      </c>
-      <c r="H37" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="I37" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="J37" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="K37" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="22">
+      <c r="C37" s="19"/>
+      <c r="D37" s="21"/>
+      <c r="E37" s="19"/>
+      <c r="H37" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I37" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="J37" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A38" s="18">
         <v>27</v>
       </c>
       <c r="B38" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C38" s="22" t="s">
+      <c r="C38" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="D38" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="E38" s="22" t="s">
+      <c r="D38" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="E38" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="G38" s="8">
-        <v>74</v>
-      </c>
-      <c r="H38" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="I38" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="J38" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="K38" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="23"/>
+      <c r="G38" t="s">
+        <v>25</v>
+      </c>
+      <c r="H38" t="str">
+        <f t="shared" si="0"/>
+        <v>Thin</v>
+      </c>
+      <c r="I38" t="str">
+        <f t="shared" si="1"/>
+        <v>High</v>
+      </c>
+      <c r="J38" t="str">
+        <f t="shared" si="2"/>
+        <v>Medium</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A39" s="19"/>
       <c r="B39" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C39" s="23"/>
-      <c r="D39" s="25"/>
-      <c r="E39" s="23"/>
-      <c r="G39" s="8">
-        <v>75</v>
-      </c>
-      <c r="H39" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="I39" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="J39" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="K39" s="7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C39" s="19"/>
+      <c r="D39" s="21"/>
+      <c r="E39" s="19"/>
+      <c r="H39" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I39" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="J39" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="40" spans="1:10" ht="20.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A40" s="8">
         <v>28</v>
       </c>
@@ -1792,23 +1820,24 @@
       <c r="E40" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G40" s="8">
-        <v>76</v>
-      </c>
-      <c r="H40" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="I40" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="J40" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="K40" s="7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G40" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B40,"Muda","Young"),"Paroh baya","Middle-aged"),"Tua","Old"),"Sangat tua","Elderly")</f>
+        <v>Middle-aged</v>
+      </c>
+      <c r="H40" t="str">
+        <f t="shared" si="0"/>
+        <v>Thin</v>
+      </c>
+      <c r="I40" t="str">
+        <f t="shared" si="1"/>
+        <v>Very High</v>
+      </c>
+      <c r="J40" t="str">
+        <f t="shared" si="2"/>
+        <v>Medium</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" ht="20.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A41" s="8">
         <v>29</v>
       </c>
@@ -1824,23 +1853,24 @@
       <c r="E41" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="G41" s="8">
-        <v>77</v>
-      </c>
-      <c r="H41" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="I41" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="J41" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="K41" s="7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G41" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B41,"Muda","Young"),"Paroh baya","Middle-aged"),"Tua","Old"),"Sangat tua","Elderly")</f>
+        <v>Middle-aged</v>
+      </c>
+      <c r="H41" t="str">
+        <f t="shared" si="0"/>
+        <v>Normal</v>
+      </c>
+      <c r="I41" t="str">
+        <f t="shared" si="1"/>
+        <v>Low</v>
+      </c>
+      <c r="J41" t="str">
+        <f t="shared" si="2"/>
+        <v>Low</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" ht="20.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A42" s="8">
         <v>30</v>
       </c>
@@ -1856,140 +1886,180 @@
       <c r="E42" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G42" s="22">
-        <v>78</v>
-      </c>
-      <c r="H42" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="I42" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="J42" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="K42" s="24" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="22">
+      <c r="G42" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B42,"Muda","Young"),"Paroh baya","Middle-aged"),"Tua","Old"),"Sangat tua","Elderly")</f>
+        <v>Middle-aged</v>
+      </c>
+      <c r="H42" t="str">
+        <f t="shared" si="0"/>
+        <v>Normal</v>
+      </c>
+      <c r="I42" t="str">
+        <f t="shared" si="1"/>
+        <v>Normal</v>
+      </c>
+      <c r="J42" t="str">
+        <f t="shared" si="2"/>
+        <v>Medium</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A43" s="18">
         <v>31</v>
       </c>
       <c r="B43" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C43" s="22" t="s">
+      <c r="C43" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="D43" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="E43" s="22" t="s">
+      <c r="D43" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="E43" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="G43" s="23"/>
-      <c r="H43" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="I43" s="21"/>
-      <c r="J43" s="23"/>
-      <c r="K43" s="25"/>
-    </row>
-    <row r="44" spans="1:11" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="23"/>
+      <c r="G43" t="s">
+        <v>25</v>
+      </c>
+      <c r="H43" t="str">
+        <f t="shared" si="0"/>
+        <v>Normal</v>
+      </c>
+      <c r="I43" t="str">
+        <f t="shared" si="1"/>
+        <v>High</v>
+      </c>
+      <c r="J43" t="str">
+        <f t="shared" si="2"/>
+        <v>Medium</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A44" s="19"/>
       <c r="B44" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C44" s="23"/>
-      <c r="D44" s="25"/>
-      <c r="E44" s="23"/>
-      <c r="G44" s="8">
-        <v>79</v>
-      </c>
-      <c r="H44" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="I44" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="J44" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="K44" s="7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="22">
+      <c r="C44" s="19"/>
+      <c r="D44" s="21"/>
+      <c r="E44" s="19"/>
+      <c r="H44" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I44" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="J44" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A45" s="18">
         <v>32</v>
       </c>
       <c r="B45" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C45" s="22" t="s">
+      <c r="C45" s="18" t="s">
         <v>10</v>
       </c>
       <c r="D45" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E45" s="22" t="s">
+      <c r="E45" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="G45" s="8">
-        <v>80</v>
-      </c>
-      <c r="H45" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="I45" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="J45" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="K45" s="7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="23"/>
+      <c r="G45" t="s">
+        <v>25</v>
+      </c>
+      <c r="H45" t="str">
+        <f t="shared" si="0"/>
+        <v>Normal</v>
+      </c>
+      <c r="I45" t="s">
+        <v>27</v>
+      </c>
+      <c r="J45" t="str">
+        <f t="shared" si="2"/>
+        <v>Medium</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A46" s="19"/>
       <c r="B46" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C46" s="23"/>
+      <c r="C46" s="19"/>
       <c r="D46" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="E46" s="23"/>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A47" s="22">
+      <c r="E46" s="19"/>
+      <c r="H46" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J46" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A47" s="18">
         <v>33</v>
       </c>
       <c r="B47" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C47" s="22" t="s">
+      <c r="C47" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="D47" s="24" t="s">
+      <c r="D47" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="E47" s="22" t="s">
+      <c r="E47" s="18" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="48" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="23"/>
+      <c r="G47" t="s">
+        <v>25</v>
+      </c>
+      <c r="H47" t="str">
+        <f t="shared" si="0"/>
+        <v>Light-fat</v>
+      </c>
+      <c r="I47" t="str">
+        <f t="shared" si="1"/>
+        <v>Low</v>
+      </c>
+      <c r="J47" t="str">
+        <f t="shared" si="2"/>
+        <v>Medium</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A48" s="19"/>
       <c r="B48" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C48" s="23"/>
-      <c r="D48" s="25"/>
-      <c r="E48" s="23"/>
-    </row>
-    <row r="49" spans="1:5" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C48" s="19"/>
+      <c r="D48" s="21"/>
+      <c r="E48" s="19"/>
+      <c r="H48" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I48" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="J48" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="49" spans="1:10" ht="20.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A49" s="8">
         <v>34</v>
       </c>
@@ -2005,8 +2075,24 @@
       <c r="E49" s="9" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G49" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B49,"Muda","Young"),"Paroh baya","Middle-aged"),"Tua","Old"),"Sangat tua","Elderly")</f>
+        <v>Middle-aged</v>
+      </c>
+      <c r="H49" t="str">
+        <f t="shared" si="0"/>
+        <v>Light-fat</v>
+      </c>
+      <c r="I49" t="str">
+        <f t="shared" si="1"/>
+        <v>Normal</v>
+      </c>
+      <c r="J49" t="str">
+        <f t="shared" si="2"/>
+        <v>Medium</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" ht="20.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A50" s="8">
         <v>35</v>
       </c>
@@ -2022,8 +2108,24 @@
       <c r="E50" s="9" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G50" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B50,"Muda","Young"),"Paroh baya","Middle-aged"),"Tua","Old"),"Sangat tua","Elderly")</f>
+        <v>Middle-aged</v>
+      </c>
+      <c r="H50" t="str">
+        <f t="shared" si="0"/>
+        <v>Light-fat</v>
+      </c>
+      <c r="I50" t="str">
+        <f t="shared" si="1"/>
+        <v>High</v>
+      </c>
+      <c r="J50" t="str">
+        <f t="shared" si="2"/>
+        <v>High</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" ht="20.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A51" s="8">
         <v>36</v>
       </c>
@@ -2039,86 +2141,183 @@
       <c r="E51" s="9" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A52" s="22">
+      <c r="G51" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B51,"Muda","Young"),"Paroh baya","Middle-aged"),"Tua","Old"),"Sangat tua","Elderly")</f>
+        <v>Middle-aged</v>
+      </c>
+      <c r="H51" t="str">
+        <f t="shared" si="0"/>
+        <v>Light-fat</v>
+      </c>
+      <c r="I51" t="str">
+        <f t="shared" si="1"/>
+        <v>Very High</v>
+      </c>
+      <c r="J51" t="str">
+        <f t="shared" si="2"/>
+        <v>High</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A52" s="18">
         <v>37</v>
       </c>
       <c r="B52" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C52" s="22" t="s">
+      <c r="C52" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="D52" s="24" t="s">
+      <c r="D52" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="E52" s="22" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="23"/>
+      <c r="E52" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="G52" t="s">
+        <v>25</v>
+      </c>
+      <c r="H52" t="str">
+        <f t="shared" si="0"/>
+        <v>Fat</v>
+      </c>
+      <c r="I52" t="str">
+        <f t="shared" si="1"/>
+        <v>Low</v>
+      </c>
+      <c r="J52" t="str">
+        <f t="shared" si="2"/>
+        <v>High</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A53" s="19"/>
       <c r="B53" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C53" s="23"/>
-      <c r="D53" s="25"/>
-      <c r="E53" s="23"/>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A54" s="22">
+      <c r="C53" s="19"/>
+      <c r="D53" s="21"/>
+      <c r="E53" s="19"/>
+      <c r="H53" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I53" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="J53" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A54" s="18">
         <v>38</v>
       </c>
       <c r="B54" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C54" s="22" t="s">
+      <c r="C54" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="D54" s="24" t="s">
+      <c r="D54" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="E54" s="22" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="23"/>
+      <c r="E54" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="G54" t="s">
+        <v>25</v>
+      </c>
+      <c r="H54" t="str">
+        <f t="shared" si="0"/>
+        <v>Fat</v>
+      </c>
+      <c r="I54" t="str">
+        <f t="shared" si="1"/>
+        <v>Normal</v>
+      </c>
+      <c r="J54" t="str">
+        <f t="shared" si="2"/>
+        <v>High</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A55" s="19"/>
       <c r="B55" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C55" s="23"/>
-      <c r="D55" s="25"/>
-      <c r="E55" s="23"/>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A56" s="22">
+      <c r="C55" s="19"/>
+      <c r="D55" s="21"/>
+      <c r="E55" s="19"/>
+      <c r="H55" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I55" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="J55" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A56" s="18">
         <v>39</v>
       </c>
       <c r="B56" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C56" s="22" t="s">
+      <c r="C56" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="D56" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="E56" s="22" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="23"/>
+      <c r="D56" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="E56" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="G56" t="s">
+        <v>25</v>
+      </c>
+      <c r="H56" t="str">
+        <f t="shared" si="0"/>
+        <v>Fat</v>
+      </c>
+      <c r="I56" t="str">
+        <f t="shared" si="1"/>
+        <v>High</v>
+      </c>
+      <c r="J56" t="str">
+        <f t="shared" si="2"/>
+        <v>High</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A57" s="19"/>
       <c r="B57" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C57" s="23"/>
-      <c r="D57" s="25"/>
-      <c r="E57" s="23"/>
-    </row>
-    <row r="58" spans="1:5" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C57" s="19"/>
+      <c r="D57" s="21"/>
+      <c r="E57" s="19"/>
+      <c r="H57" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I57" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="J57" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="58" spans="1:10" ht="20.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A58" s="8">
         <v>40</v>
       </c>
@@ -2134,40 +2333,1455 @@
       <c r="E58" s="9" t="s">
         <v>11</v>
       </c>
+      <c r="G58" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B58,"Muda","Young"),"Paroh baya","Middle-aged"),"Tua","Old"),"Sangat tua","Elderly")</f>
+        <v>Middle-aged</v>
+      </c>
+      <c r="H58" t="str">
+        <f t="shared" si="0"/>
+        <v>Fat</v>
+      </c>
+      <c r="I58" t="str">
+        <f t="shared" si="1"/>
+        <v>Very High</v>
+      </c>
+      <c r="J58" t="str">
+        <f t="shared" si="2"/>
+        <v>High</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A59" s="18">
+        <v>41</v>
+      </c>
+      <c r="B59" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="C59" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="D59" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="E59" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G59" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B59,"Muda","Young"),"Paroh baya","Middle-aged"),"Tua","Old"),"Sangat tua","Elderly")</f>
+        <v>Old</v>
+      </c>
+      <c r="H59" t="str">
+        <f t="shared" si="0"/>
+        <v>Slim</v>
+      </c>
+      <c r="I59" t="str">
+        <f t="shared" si="1"/>
+        <v>Low</v>
+      </c>
+      <c r="J59" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A60" s="19"/>
+      <c r="B60" s="19"/>
+      <c r="C60" s="23"/>
+      <c r="D60" s="19"/>
+      <c r="E60" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G60" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B60,"Muda","Young"),"Paroh baya","Middle-aged"),"Tua","Old"),"Sangat tua","Elderly")</f>
+        <v/>
+      </c>
+      <c r="H60" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I60" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="61" spans="1:10" ht="20.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A61" s="8">
+        <v>42</v>
+      </c>
+      <c r="B61" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C61" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D61" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E61" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G61" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B61,"Muda","Young"),"Paroh baya","Middle-aged"),"Tua","Old"),"Sangat tua","Elderly")</f>
+        <v>Old</v>
+      </c>
+      <c r="H61" t="str">
+        <f t="shared" si="0"/>
+        <v>Slim</v>
+      </c>
+      <c r="I61" t="str">
+        <f t="shared" si="1"/>
+        <v>Normal</v>
+      </c>
+      <c r="J61" t="str">
+        <f t="shared" si="2"/>
+        <v>Very low</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A62" s="8">
+        <v>43</v>
+      </c>
+      <c r="B62" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C62" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D62" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E62" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G62" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B62,"Muda","Young"),"Paroh baya","Middle-aged"),"Tua","Old"),"Sangat tua","Elderly")</f>
+        <v>Old</v>
+      </c>
+      <c r="H62" t="str">
+        <f t="shared" si="0"/>
+        <v>Slim</v>
+      </c>
+      <c r="I62" t="str">
+        <f t="shared" si="1"/>
+        <v>High</v>
+      </c>
+      <c r="J62" t="str">
+        <f t="shared" si="2"/>
+        <v>Low</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" ht="20.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A63" s="8">
+        <v>44</v>
+      </c>
+      <c r="B63" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C63" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D63" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E63" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="G63" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B63,"Muda","Young"),"Paroh baya","Middle-aged"),"Tua","Old"),"Sangat tua","Elderly")</f>
+        <v>Old</v>
+      </c>
+      <c r="H63" t="str">
+        <f t="shared" si="0"/>
+        <v>Slim</v>
+      </c>
+      <c r="I63" t="str">
+        <f t="shared" si="1"/>
+        <v>Very High</v>
+      </c>
+      <c r="J63" t="str">
+        <f t="shared" si="2"/>
+        <v>Medium</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" ht="20.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A64" s="8">
+        <v>45</v>
+      </c>
+      <c r="B64" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C64" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D64" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E64" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G64" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B64,"Muda","Young"),"Paroh baya","Middle-aged"),"Tua","Old"),"Sangat tua","Elderly")</f>
+        <v>Old</v>
+      </c>
+      <c r="H64" t="str">
+        <f t="shared" si="0"/>
+        <v>Thin</v>
+      </c>
+      <c r="I64" t="str">
+        <f t="shared" si="1"/>
+        <v>Low</v>
+      </c>
+      <c r="J64" t="str">
+        <f t="shared" si="2"/>
+        <v>Very low</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A65" s="8">
+        <v>46</v>
+      </c>
+      <c r="B65" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C65" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D65" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E65" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G65" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B65,"Muda","Young"),"Paroh baya","Middle-aged"),"Tua","Old"),"Sangat tua","Elderly")</f>
+        <v>Old</v>
+      </c>
+      <c r="H65" t="str">
+        <f t="shared" si="0"/>
+        <v>Thin</v>
+      </c>
+      <c r="I65" t="str">
+        <f t="shared" si="1"/>
+        <v>Normal</v>
+      </c>
+      <c r="J65" t="str">
+        <f t="shared" si="2"/>
+        <v>Low</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A66" s="8">
+        <v>47</v>
+      </c>
+      <c r="B66" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C66" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D66" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E66" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="G66" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B66,"Muda","Young"),"Paroh baya","Middle-aged"),"Tua","Old"),"Sangat tua","Elderly")</f>
+        <v>Old</v>
+      </c>
+      <c r="H66" t="str">
+        <f t="shared" si="0"/>
+        <v>Thin</v>
+      </c>
+      <c r="I66" t="str">
+        <f t="shared" si="1"/>
+        <v>High</v>
+      </c>
+      <c r="J66" t="str">
+        <f t="shared" si="2"/>
+        <v>Medium</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" ht="20.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A67" s="8">
+        <v>48</v>
+      </c>
+      <c r="B67" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C67" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D67" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E67" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="G67" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B67,"Muda","Young"),"Paroh baya","Middle-aged"),"Tua","Old"),"Sangat tua","Elderly")</f>
+        <v>Old</v>
+      </c>
+      <c r="H67" t="str">
+        <f t="shared" ref="H67:H102" si="3">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(C67,"Kurus berat","Slim"),"Kurus ringan","Thin"),"Gemuk ringan","Light-fat"),"Gemuk berat","Fat")</f>
+        <v>Thin</v>
+      </c>
+      <c r="I67" t="str">
+        <f t="shared" ref="I67:I102" si="4">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(D67,"Rendah","Low"),"Tinggi","High"),"Sangat tinggi","Very High"),"Gemuk berat","Fat")</f>
+        <v>Very High</v>
+      </c>
+      <c r="J67" t="str">
+        <f t="shared" si="2"/>
+        <v>Medium</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A68" s="8">
+        <v>49</v>
+      </c>
+      <c r="B68" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C68" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D68" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E68" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G68" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B68,"Muda","Young"),"Paroh baya","Middle-aged"),"Tua","Old"),"Sangat tua","Elderly")</f>
+        <v>Old</v>
+      </c>
+      <c r="H68" t="str">
+        <f t="shared" si="3"/>
+        <v>Normal</v>
+      </c>
+      <c r="I68" t="str">
+        <f t="shared" si="4"/>
+        <v>Low</v>
+      </c>
+      <c r="J68" t="str">
+        <f t="shared" si="2"/>
+        <v>Low</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A69" s="8">
+        <v>50</v>
+      </c>
+      <c r="B69" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C69" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D69" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E69" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="G69" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B69,"Muda","Young"),"Paroh baya","Middle-aged"),"Tua","Old"),"Sangat tua","Elderly")</f>
+        <v>Old</v>
+      </c>
+      <c r="H69" t="str">
+        <f t="shared" si="3"/>
+        <v>Normal</v>
+      </c>
+      <c r="I69" t="str">
+        <f t="shared" si="4"/>
+        <v>Normal</v>
+      </c>
+      <c r="J69" t="str">
+        <f t="shared" si="2"/>
+        <v>Medium</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A70" s="8">
+        <v>51</v>
+      </c>
+      <c r="B70" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C70" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D70" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E70" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="G70" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B70,"Muda","Young"),"Paroh baya","Middle-aged"),"Tua","Old"),"Sangat tua","Elderly")</f>
+        <v>Old</v>
+      </c>
+      <c r="H70" t="str">
+        <f t="shared" si="3"/>
+        <v>Normal</v>
+      </c>
+      <c r="I70" t="str">
+        <f t="shared" si="4"/>
+        <v>High</v>
+      </c>
+      <c r="J70" t="str">
+        <f t="shared" si="2"/>
+        <v>Medium</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" ht="20.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A71" s="8">
+        <v>52</v>
+      </c>
+      <c r="B71" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C71" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D71" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E71" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="G71" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B71,"Muda","Young"),"Paroh baya","Middle-aged"),"Tua","Old"),"Sangat tua","Elderly")</f>
+        <v>Old</v>
+      </c>
+      <c r="H71" t="str">
+        <f t="shared" si="3"/>
+        <v>Normal</v>
+      </c>
+      <c r="I71" t="str">
+        <f t="shared" si="4"/>
+        <v>Very High</v>
+      </c>
+      <c r="J71" t="str">
+        <f t="shared" ref="J71:J102" si="5">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(E71,"Sangat rendah","Very low"),"Tinggi","High"),"Rendah","Low"),"Menengah","Medium")</f>
+        <v>Medium</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" ht="20.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A72" s="8">
+        <v>53</v>
+      </c>
+      <c r="B72" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C72" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D72" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E72" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="G72" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B72,"Muda","Young"),"Paroh baya","Middle-aged"),"Tua","Old"),"Sangat tua","Elderly")</f>
+        <v>Old</v>
+      </c>
+      <c r="H72" t="str">
+        <f t="shared" si="3"/>
+        <v>Light-fat</v>
+      </c>
+      <c r="I72" t="str">
+        <f t="shared" si="4"/>
+        <v>Low</v>
+      </c>
+      <c r="J72" t="str">
+        <f t="shared" si="5"/>
+        <v>Medium</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" ht="20.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A73" s="8">
+        <v>54</v>
+      </c>
+      <c r="B73" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C73" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D73" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E73" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="G73" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B73,"Muda","Young"),"Paroh baya","Middle-aged"),"Tua","Old"),"Sangat tua","Elderly")</f>
+        <v>Old</v>
+      </c>
+      <c r="H73" t="str">
+        <f t="shared" si="3"/>
+        <v>Light-fat</v>
+      </c>
+      <c r="I73" t="str">
+        <f t="shared" si="4"/>
+        <v>Normal</v>
+      </c>
+      <c r="J73" t="str">
+        <f t="shared" si="5"/>
+        <v>Medium</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" ht="20.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A74" s="8">
+        <v>55</v>
+      </c>
+      <c r="B74" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C74" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D74" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E74" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G74" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B74,"Muda","Young"),"Paroh baya","Middle-aged"),"Tua","Old"),"Sangat tua","Elderly")</f>
+        <v>Old</v>
+      </c>
+      <c r="H74" t="str">
+        <f t="shared" si="3"/>
+        <v>Light-fat</v>
+      </c>
+      <c r="I74" t="str">
+        <f t="shared" si="4"/>
+        <v>High</v>
+      </c>
+      <c r="J74" t="str">
+        <f t="shared" si="5"/>
+        <v>High</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" ht="20.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A75" s="8">
+        <v>56</v>
+      </c>
+      <c r="B75" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C75" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D75" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E75" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G75" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B75,"Muda","Young"),"Paroh baya","Middle-aged"),"Tua","Old"),"Sangat tua","Elderly")</f>
+        <v>Old</v>
+      </c>
+      <c r="H75" t="str">
+        <f t="shared" si="3"/>
+        <v>Light-fat</v>
+      </c>
+      <c r="I75" t="str">
+        <f t="shared" si="4"/>
+        <v>Very High</v>
+      </c>
+      <c r="J75" t="str">
+        <f t="shared" si="5"/>
+        <v>High</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" ht="20.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A76" s="8">
+        <v>57</v>
+      </c>
+      <c r="B76" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C76" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="D76" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E76" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G76" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B76,"Muda","Young"),"Paroh baya","Middle-aged"),"Tua","Old"),"Sangat tua","Elderly")</f>
+        <v>Old</v>
+      </c>
+      <c r="H76" t="str">
+        <f t="shared" si="3"/>
+        <v>Fat</v>
+      </c>
+      <c r="I76" t="str">
+        <f t="shared" si="4"/>
+        <v>Low</v>
+      </c>
+      <c r="J76" t="str">
+        <f t="shared" si="5"/>
+        <v>High</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" ht="20.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A77" s="8">
+        <v>58</v>
+      </c>
+      <c r="B77" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C77" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="D77" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E77" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G77" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B77,"Muda","Young"),"Paroh baya","Middle-aged"),"Tua","Old"),"Sangat tua","Elderly")</f>
+        <v>Old</v>
+      </c>
+      <c r="H77" t="str">
+        <f t="shared" si="3"/>
+        <v>Fat</v>
+      </c>
+      <c r="I77" t="str">
+        <f t="shared" si="4"/>
+        <v>Normal</v>
+      </c>
+      <c r="J77" t="str">
+        <f t="shared" si="5"/>
+        <v>High</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" ht="20.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A78" s="8">
+        <v>59</v>
+      </c>
+      <c r="B78" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C78" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="D78" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E78" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G78" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B78,"Muda","Young"),"Paroh baya","Middle-aged"),"Tua","Old"),"Sangat tua","Elderly")</f>
+        <v>Old</v>
+      </c>
+      <c r="H78" t="str">
+        <f t="shared" si="3"/>
+        <v>Fat</v>
+      </c>
+      <c r="I78" t="str">
+        <f t="shared" si="4"/>
+        <v>High</v>
+      </c>
+      <c r="J78" t="str">
+        <f t="shared" si="5"/>
+        <v>High</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" ht="20.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A79" s="8">
+        <v>60</v>
+      </c>
+      <c r="B79" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C79" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="D79" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E79" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G79" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B79,"Muda","Young"),"Paroh baya","Middle-aged"),"Tua","Old"),"Sangat tua","Elderly")</f>
+        <v>Old</v>
+      </c>
+      <c r="H79" t="str">
+        <f t="shared" si="3"/>
+        <v>Fat</v>
+      </c>
+      <c r="I79" t="str">
+        <f t="shared" si="4"/>
+        <v>Very High</v>
+      </c>
+      <c r="J79" t="str">
+        <f t="shared" si="5"/>
+        <v>High</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" ht="20.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A80" s="8">
+        <v>61</v>
+      </c>
+      <c r="B80" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C80" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D80" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E80" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G80" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B80,"Muda","Young"),"Paroh baya","Middle-aged"),"Tua","Old"),"Sangat tua","Elderly")</f>
+        <v>Elderly</v>
+      </c>
+      <c r="H80" t="str">
+        <f t="shared" si="3"/>
+        <v>Slim</v>
+      </c>
+      <c r="I80" t="str">
+        <f t="shared" si="4"/>
+        <v>Low</v>
+      </c>
+      <c r="J80" t="str">
+        <f t="shared" si="5"/>
+        <v>Very low</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" ht="20.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A81" s="8">
+        <v>62</v>
+      </c>
+      <c r="B81" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C81" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D81" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E81" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G81" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B81,"Muda","Young"),"Paroh baya","Middle-aged"),"Tua","Old"),"Sangat tua","Elderly")</f>
+        <v>Elderly</v>
+      </c>
+      <c r="H81" t="str">
+        <f t="shared" si="3"/>
+        <v>Slim</v>
+      </c>
+      <c r="I81" t="str">
+        <f t="shared" si="4"/>
+        <v>Normal</v>
+      </c>
+      <c r="J81" t="str">
+        <f t="shared" si="5"/>
+        <v>Very low</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" ht="20.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A82" s="8">
+        <v>63</v>
+      </c>
+      <c r="B82" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C82" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D82" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E82" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G82" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B82,"Muda","Young"),"Paroh baya","Middle-aged"),"Tua","Old"),"Sangat tua","Elderly")</f>
+        <v>Elderly</v>
+      </c>
+      <c r="H82" t="str">
+        <f t="shared" si="3"/>
+        <v>Slim</v>
+      </c>
+      <c r="I82" t="str">
+        <f t="shared" si="4"/>
+        <v>High</v>
+      </c>
+      <c r="J82" t="str">
+        <f t="shared" si="5"/>
+        <v>Low</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" ht="20.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A83" s="8">
+        <v>64</v>
+      </c>
+      <c r="B83" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C83" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D83" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E83" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="G83" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B83,"Muda","Young"),"Paroh baya","Middle-aged"),"Tua","Old"),"Sangat tua","Elderly")</f>
+        <v>Elderly</v>
+      </c>
+      <c r="H83" t="str">
+        <f t="shared" si="3"/>
+        <v>Slim</v>
+      </c>
+      <c r="I83" t="str">
+        <f t="shared" si="4"/>
+        <v>Very High</v>
+      </c>
+      <c r="J83" t="str">
+        <f t="shared" si="5"/>
+        <v>Medium</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A84" s="18">
+        <v>65</v>
+      </c>
+      <c r="B84" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C84" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="D84" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="E84" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G84" t="s">
+        <v>26</v>
+      </c>
+      <c r="H84" t="str">
+        <f t="shared" si="3"/>
+        <v>Thin</v>
+      </c>
+      <c r="I84" t="str">
+        <f t="shared" si="4"/>
+        <v>Low</v>
+      </c>
+      <c r="J84" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A85" s="19"/>
+      <c r="B85" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C85" s="23"/>
+      <c r="D85" s="19"/>
+      <c r="E85" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H85" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="I85" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="86" spans="1:10" ht="20.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A86" s="8">
+        <v>66</v>
+      </c>
+      <c r="B86" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C86" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D86" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E86" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G86" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B86,"Muda","Young"),"Paroh baya","Middle-aged"),"Tua","Old"),"Sangat tua","Elderly")</f>
+        <v>Elderly</v>
+      </c>
+      <c r="H86" t="str">
+        <f t="shared" si="3"/>
+        <v>Thin</v>
+      </c>
+      <c r="I86" t="str">
+        <f t="shared" si="4"/>
+        <v>Normal</v>
+      </c>
+      <c r="J86" t="str">
+        <f t="shared" si="5"/>
+        <v>Low</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" ht="20.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A87" s="8">
+        <v>67</v>
+      </c>
+      <c r="B87" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C87" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D87" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E87" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="G87" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B87,"Muda","Young"),"Paroh baya","Middle-aged"),"Tua","Old"),"Sangat tua","Elderly")</f>
+        <v>Elderly</v>
+      </c>
+      <c r="H87" t="str">
+        <f t="shared" si="3"/>
+        <v>Thin</v>
+      </c>
+      <c r="I87" t="str">
+        <f t="shared" si="4"/>
+        <v>High</v>
+      </c>
+      <c r="J87" t="str">
+        <f t="shared" si="5"/>
+        <v>Medium</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" ht="20.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A88" s="8">
+        <v>68</v>
+      </c>
+      <c r="B88" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C88" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D88" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E88" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="G88" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B88,"Muda","Young"),"Paroh baya","Middle-aged"),"Tua","Old"),"Sangat tua","Elderly")</f>
+        <v>Elderly</v>
+      </c>
+      <c r="H88" t="str">
+        <f t="shared" si="3"/>
+        <v>Thin</v>
+      </c>
+      <c r="I88" t="str">
+        <f t="shared" si="4"/>
+        <v>Very High</v>
+      </c>
+      <c r="J88" t="str">
+        <f t="shared" si="5"/>
+        <v>Medium</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" ht="20.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A89" s="14">
+        <v>69</v>
+      </c>
+      <c r="B89" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C89" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D89" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="E89" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="G89" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B89,"Muda","Young"),"Paroh baya","Middle-aged"),"Tua","Old"),"Sangat tua","Elderly")</f>
+        <v>Elderly</v>
+      </c>
+      <c r="H89" t="str">
+        <f t="shared" si="3"/>
+        <v>Normal</v>
+      </c>
+      <c r="I89" t="str">
+        <f t="shared" si="4"/>
+        <v>Low</v>
+      </c>
+      <c r="J89" t="str">
+        <f t="shared" si="5"/>
+        <v>Low</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" ht="20.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A90" s="8">
+        <v>70</v>
+      </c>
+      <c r="B90" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C90" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D90" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E90" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="G90" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B90,"Muda","Young"),"Paroh baya","Middle-aged"),"Tua","Old"),"Sangat tua","Elderly")</f>
+        <v>Elderly</v>
+      </c>
+      <c r="H90" t="str">
+        <f t="shared" si="3"/>
+        <v>Normal</v>
+      </c>
+      <c r="I90" t="str">
+        <f t="shared" si="4"/>
+        <v>Normal</v>
+      </c>
+      <c r="J90" t="str">
+        <f t="shared" si="5"/>
+        <v>Medium</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" ht="20.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A91" s="8">
+        <v>71</v>
+      </c>
+      <c r="B91" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C91" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D91" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E91" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="G91" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B91,"Muda","Young"),"Paroh baya","Middle-aged"),"Tua","Old"),"Sangat tua","Elderly")</f>
+        <v>Elderly</v>
+      </c>
+      <c r="H91" t="str">
+        <f t="shared" si="3"/>
+        <v>Normal</v>
+      </c>
+      <c r="I91" t="str">
+        <f t="shared" si="4"/>
+        <v>High</v>
+      </c>
+      <c r="J91" t="str">
+        <f t="shared" si="5"/>
+        <v>Medium</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A92" s="18">
+        <v>72</v>
+      </c>
+      <c r="B92" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C92" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="D92" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E92" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="G92" t="s">
+        <v>26</v>
+      </c>
+      <c r="H92" t="str">
+        <f t="shared" si="3"/>
+        <v>Normal</v>
+      </c>
+      <c r="I92" t="s">
+        <v>27</v>
+      </c>
+      <c r="J92" t="str">
+        <f t="shared" si="5"/>
+        <v>Medium</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A93" s="19"/>
+      <c r="B93" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C93" s="25"/>
+      <c r="D93" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E93" s="23"/>
+      <c r="H93" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="J93" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="94" spans="1:10" ht="20.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A94" s="8">
+        <v>73</v>
+      </c>
+      <c r="B94" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C94" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D94" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E94" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="G94" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B94,"Muda","Young"),"Paroh baya","Middle-aged"),"Tua","Old"),"Sangat tua","Elderly")</f>
+        <v>Elderly</v>
+      </c>
+      <c r="H94" t="str">
+        <f t="shared" si="3"/>
+        <v>Light-fat</v>
+      </c>
+      <c r="I94" t="str">
+        <f t="shared" si="4"/>
+        <v>Low</v>
+      </c>
+      <c r="J94" t="str">
+        <f t="shared" si="5"/>
+        <v>Medium</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" ht="20.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A95" s="8">
+        <v>74</v>
+      </c>
+      <c r="B95" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C95" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D95" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E95" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="G95" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B95,"Muda","Young"),"Paroh baya","Middle-aged"),"Tua","Old"),"Sangat tua","Elderly")</f>
+        <v>Elderly</v>
+      </c>
+      <c r="H95" t="str">
+        <f t="shared" si="3"/>
+        <v>Light-fat</v>
+      </c>
+      <c r="I95" t="str">
+        <f t="shared" si="4"/>
+        <v>Normal</v>
+      </c>
+      <c r="J95" t="str">
+        <f t="shared" si="5"/>
+        <v>Medium</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" ht="20.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A96" s="8">
+        <v>75</v>
+      </c>
+      <c r="B96" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C96" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D96" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E96" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G96" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B96,"Muda","Young"),"Paroh baya","Middle-aged"),"Tua","Old"),"Sangat tua","Elderly")</f>
+        <v>Elderly</v>
+      </c>
+      <c r="H96" t="str">
+        <f t="shared" si="3"/>
+        <v>Light-fat</v>
+      </c>
+      <c r="I96" t="str">
+        <f t="shared" si="4"/>
+        <v>High</v>
+      </c>
+      <c r="J96" t="str">
+        <f t="shared" si="5"/>
+        <v>High</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" ht="20.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A97" s="8">
+        <v>76</v>
+      </c>
+      <c r="B97" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C97" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D97" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E97" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G97" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B97,"Muda","Young"),"Paroh baya","Middle-aged"),"Tua","Old"),"Sangat tua","Elderly")</f>
+        <v>Elderly</v>
+      </c>
+      <c r="H97" t="str">
+        <f t="shared" si="3"/>
+        <v>Light-fat</v>
+      </c>
+      <c r="I97" t="str">
+        <f t="shared" si="4"/>
+        <v>Very High</v>
+      </c>
+      <c r="J97" t="str">
+        <f t="shared" si="5"/>
+        <v>High</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" ht="20.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A98" s="8">
+        <v>77</v>
+      </c>
+      <c r="B98" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C98" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="D98" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E98" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G98" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B98,"Muda","Young"),"Paroh baya","Middle-aged"),"Tua","Old"),"Sangat tua","Elderly")</f>
+        <v>Elderly</v>
+      </c>
+      <c r="H98" t="str">
+        <f t="shared" si="3"/>
+        <v>Fat</v>
+      </c>
+      <c r="I98" t="str">
+        <f t="shared" si="4"/>
+        <v>Low</v>
+      </c>
+      <c r="J98" t="str">
+        <f t="shared" si="5"/>
+        <v>High</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A99" s="18">
+        <v>78</v>
+      </c>
+      <c r="B99" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C99" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="D99" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="E99" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="G99" t="s">
+        <v>26</v>
+      </c>
+      <c r="H99" t="str">
+        <f t="shared" si="3"/>
+        <v>Fat</v>
+      </c>
+      <c r="I99" t="str">
+        <f t="shared" si="4"/>
+        <v>Normal</v>
+      </c>
+      <c r="J99" t="str">
+        <f t="shared" si="5"/>
+        <v>High</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A100" s="19"/>
+      <c r="B100" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C100" s="23"/>
+      <c r="D100" s="19"/>
+      <c r="E100" s="21"/>
+      <c r="H100" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="I100" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="J100" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="101" spans="1:10" ht="20.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A101" s="8">
+        <v>79</v>
+      </c>
+      <c r="B101" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C101" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="D101" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E101" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G101" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B101,"Muda","Young"),"Paroh baya","Middle-aged"),"Tua","Old"),"Sangat tua","Elderly")</f>
+        <v>Elderly</v>
+      </c>
+      <c r="H101" t="str">
+        <f t="shared" si="3"/>
+        <v>Fat</v>
+      </c>
+      <c r="I101" t="str">
+        <f t="shared" si="4"/>
+        <v>High</v>
+      </c>
+      <c r="J101" t="str">
+        <f t="shared" si="5"/>
+        <v>High</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" ht="20.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A102" s="8">
+        <v>80</v>
+      </c>
+      <c r="B102" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C102" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="D102" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E102" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G102" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B102,"Muda","Young"),"Paroh baya","Middle-aged"),"Tua","Old"),"Sangat tua","Elderly")</f>
+        <v>Elderly</v>
+      </c>
+      <c r="H102" t="str">
+        <f t="shared" si="3"/>
+        <v>Fat</v>
+      </c>
+      <c r="I102" t="str">
+        <f t="shared" si="4"/>
+        <v>Very High</v>
+      </c>
+      <c r="J102" t="str">
+        <f t="shared" si="5"/>
+        <v>High</v>
+      </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="G2:G102">
+    <sortCondition sortBy="cellColor" ref="G2:G102"/>
+  </sortState>
   <mergeCells count="79">
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="C92:C93"/>
+    <mergeCell ref="E92:E93"/>
+    <mergeCell ref="A99:A100"/>
+    <mergeCell ref="C99:C100"/>
+    <mergeCell ref="D99:D100"/>
+    <mergeCell ref="E99:E100"/>
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="C59:C60"/>
+    <mergeCell ref="C84:C85"/>
+    <mergeCell ref="D59:D60"/>
+    <mergeCell ref="A84:A85"/>
+    <mergeCell ref="D84:D85"/>
+    <mergeCell ref="A56:A57"/>
+    <mergeCell ref="C56:C57"/>
+    <mergeCell ref="D56:D57"/>
+    <mergeCell ref="E56:E57"/>
+    <mergeCell ref="A59:A60"/>
+    <mergeCell ref="A92:A93"/>
+    <mergeCell ref="A52:A53"/>
+    <mergeCell ref="C52:C53"/>
+    <mergeCell ref="D52:D53"/>
+    <mergeCell ref="E52:E53"/>
+    <mergeCell ref="A54:A55"/>
+    <mergeCell ref="C54:C55"/>
+    <mergeCell ref="D54:D55"/>
+    <mergeCell ref="E54:E55"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="C45:C46"/>
+    <mergeCell ref="E45:E46"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="C47:C48"/>
+    <mergeCell ref="D47:D48"/>
+    <mergeCell ref="E47:E48"/>
     <mergeCell ref="A43:A44"/>
     <mergeCell ref="C43:C44"/>
     <mergeCell ref="D43:D44"/>
@@ -2183,39 +3797,37 @@
     <mergeCell ref="C38:C39"/>
     <mergeCell ref="D38:D39"/>
     <mergeCell ref="E38:E39"/>
-    <mergeCell ref="E45:E46"/>
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="C47:C48"/>
-    <mergeCell ref="D47:D48"/>
-    <mergeCell ref="E47:E48"/>
-    <mergeCell ref="A56:A57"/>
-    <mergeCell ref="C56:C57"/>
-    <mergeCell ref="D56:D57"/>
-    <mergeCell ref="E56:E57"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="G35:G36"/>
-    <mergeCell ref="A52:A53"/>
-    <mergeCell ref="C52:C53"/>
-    <mergeCell ref="D52:D53"/>
-    <mergeCell ref="E52:E53"/>
-    <mergeCell ref="A54:A55"/>
-    <mergeCell ref="C54:C55"/>
-    <mergeCell ref="D54:D55"/>
-    <mergeCell ref="E54:E55"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="C45:C46"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="I27:I28"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="J27:J28"/>
-    <mergeCell ref="I35:I36"/>
-    <mergeCell ref="K35:K36"/>
-    <mergeCell ref="G42:G43"/>
-    <mergeCell ref="I42:I43"/>
-    <mergeCell ref="J42:J43"/>
-    <mergeCell ref="K42:K43"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
